--- a/Cálculo Grupo ASora.xlsx
+++ b/Cálculo Grupo ASora.xlsx
@@ -590,13 +590,13 @@
         <v>10.52968682654636</v>
       </c>
       <c r="R2" t="n">
-        <v>13.23416505884325</v>
+        <v>674.115282684828</v>
       </c>
       <c r="S2" t="n">
         <v>38.939927152301</v>
       </c>
       <c r="T2" t="n">
-        <v>37.78100074895871</v>
+        <v>0.7417128981390667</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo ASora.xlsx
+++ b/Cálculo Grupo ASora.xlsx
@@ -590,13 +590,13 @@
         <v>10.52968682654636</v>
       </c>
       <c r="R2" t="n">
-        <v>674.115282684828</v>
+        <v>13.23416505884325</v>
       </c>
       <c r="S2" t="n">
         <v>38.939927152301</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7417128981390667</v>
+        <v>37.78100074895871</v>
       </c>
     </row>
   </sheetData>
